--- a/medicine/Enfance/Józef_Wilkoń/Józef_Wilkoń.xlsx
+++ b/medicine/Enfance/Józef_Wilkoń/Józef_Wilkoń.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Wilko%C5%84</t>
+          <t>Józef_Wilkoń</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Józef Wilkoń, né le 12 février 1930 à Bogucice près de Wieliczka, est un artiste polonais, illustrateur, peintre et sculpteur, également historien d'art. Il est l'auteur de nombreux livres pour enfants publiés en polonais, en anglais, en allemand, en italien et d'autres langues. Son travail a été salué par la critique et par sa présence dans les sélections de nombreux prix comme le Prix allemand de littérature jeunesse (1964 et 1966) et l'obtention de la Plaque d'Or de Bratislava[1] (1969) et du prix d'honneur[1] (1973) à la Biennale de l'illustration de Bratislava (BIB) ainsi que le Premio Grafico (1980 et 1991) à la Foire du livre de jeunesse de Bologne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Józef Wilkoń, né le 12 février 1930 à Bogucice près de Wieliczka, est un artiste polonais, illustrateur, peintre et sculpteur, également historien d'art. Il est l'auteur de nombreux livres pour enfants publiés en polonais, en anglais, en allemand, en italien et d'autres langues. Son travail a été salué par la critique et par sa présence dans les sélections de nombreux prix comme le Prix allemand de littérature jeunesse (1964 et 1966) et l'obtention de la Plaque d'Or de Bratislava (1969) et du prix d'honneur (1973) à la Biennale de l'illustration de Bratislava (BIB) ainsi que le Premio Grafico (1980 et 1991) à la Foire du livre de jeunesse de Bologne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Wilko%C5%84</t>
+          <t>Józef_Wilkoń</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1947-1949, Józef Jan Wilkoń est élève du lycée des arts plastiques (Liceum Sztuk Plastycznych) de Cracovie. Il fait ensuite des études à l'Académie des beaux-arts de Cracovie (Faculté de peinture, diplôme 1955) et d'histoire de l'art à l'université Jagellonne (diplôme 1954). Il a illustré quelque deux cents livres pour enfants et adultes publiés en Pologne et plus de soixante-dix publiés à l'étranger. Il est également impliqué dans la scénographie (Teatr im. Wilama Horzycy w Toruniu, 1978) et dans des projets de tapisseries (Coopérative Stanisław-Wyspiański à Cracovie). 
 En 2000, Jakub Nowak lui consacre un documentaire intitulé Jozef Wilkoń. En 2007, Grażyna Banaszkiewicz a réalisé un autre documentaire L'Arche de Józef Wilkoń. En 2020,  Anna Ciołkiewicz réalise le film Derrière la porte de l'imagination : Józef Wilkoń.
 Il est le frère du linguiste et universitaire Aleksander Wilkoń.
-En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[2].
+En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Wilko%C5%84</t>
+          <t>Józef_Wilkoń</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quelques uns de ses titres publiés en français
 Le Poisson et l'Oiseau avec Paz Rodero, Bilboquet  (ISBN 978-2-84181-005-5)
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Wilko%C5%84</t>
+          <t>Józef_Wilkoń</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les œuvres de Józef Wilkoń ont été présentées dans de nombreuses expositions collectives et individuelles dans beaucoup de pays. 
 Parmi les principales expositions individuelles, on peut relever notamment :
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Wilko%C5%84</t>
+          <t>Józef_Wilkoń</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,15 +643,51 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1969 :  Plaque d'Or de Bratislava à la Biennale d'illustration de Bratislava[1] pour ses illustrations de  W nieparyżu i gdzie indziej (texte de Anna Kamieńska)
-1973 :  Mention d'honneur à la Biennale d'illustration de Bratislava[1] pour ses illustrations de List do Warszawy (texte de Tadeusz Kubiak)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1969 :  Plaque d'Or de Bratislava à la Biennale d'illustration de Bratislava pour ses illustrations de  W nieparyżu i gdzie indziej (texte de Anna Kamieńska)
+1973 :  Mention d'honneur à la Biennale d'illustration de Bratislava pour ses illustrations de List do Warszawy (texte de Tadeusz Kubiak)
 1980 :  Premio Grafico à la Foire du livre de jeunesse de Bologne.
 1991 :  Premio Grafico à la Foire du livre de jeunesse de Bologne.
-2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgrendurant cinq années d'affilée[2]
-Distinctions honorifiques
- Chevalier de l'ordre Polonia Restituta
+2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgrendurant cinq années d'affilée</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Józef_Wilkoń</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%B3zef_Wilko%C5%84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Distinctions honorifiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre Polonia Restituta
  Médaille de la Commission de l'Éducation nationale (pl) (équivalent polonais des Palmes académiques)
  Médaille du Mérite culturel polonais Gloria Artis
  Commandeur de l'ordre d'Isabelle la Catholique</t>
